--- a/Estimation GitHub Test.xlsx
+++ b/Estimation GitHub Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darya_Yustus\Desktop\Test GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\git-demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD15C92C-38F2-4CD0-B3CC-EEB42F87066C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4585B6-8BB5-4C59-808D-E686B27B4AD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13725" windowHeight="5970" xr2:uid="{590FB74C-4D90-462A-969D-6BE9FA35DCEE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Estimation test suites</t>
   </si>
@@ -281,6 +281,9 @@
 1
 1
 1</t>
+  </si>
+  <si>
+    <t>gitgui test</t>
   </si>
 </sst>
 </file>
@@ -500,9 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,6 +538,114 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,6 +655,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,6 +670,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,120 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1000,7 +1003,7 @@
   <dimension ref="B1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,350 +1017,350 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59" t="s">
+      <c r="H4" s="63"/>
+      <c r="I4" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="2:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30">
+      <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="60">
+      <c r="H6" s="49"/>
+      <c r="I6" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30">
+      <c r="B7" s="19">
         <v>2</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="60">
+      <c r="H7" s="49"/>
+      <c r="I7" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30">
+      <c r="B8" s="19">
         <v>3</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="60">
+      <c r="H8" s="49"/>
+      <c r="I8" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30">
+      <c r="B9" s="19">
         <v>4</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="60">
+      <c r="H9" s="49"/>
+      <c r="I9" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="129" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30">
+      <c r="B10" s="19">
         <v>5</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="60">
+      <c r="H10" s="49"/>
+      <c r="I10" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="50">
         <v>15.5</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="61"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="62"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="2:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36">
+      <c r="B13" s="23">
         <v>6</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="60">
+      <c r="H13" s="49"/>
+      <c r="I13" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36">
+      <c r="B14" s="23">
         <v>7</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="60">
+      <c r="H14" s="49"/>
+      <c r="I14" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="46" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="43">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="50">
         <v>6</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="61"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="62"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="17" spans="2:9" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36">
+      <c r="B17" s="23">
         <v>8</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="60">
+      <c r="H17" s="49"/>
+      <c r="I17" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="43">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="50">
         <v>4</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="52">
         <v>25</v>
       </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
@@ -1369,7 +1372,9 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1856,6 +1861,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G15:H15"/>
@@ -1866,14 +1879,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
